--- a/patch_mate-bom.xlsx
+++ b/patch_mate-bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max_romanov/projects/patch_mate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507F71A4-8141-DB4F-8D70-68880706A802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC527CFD-706E-EC47-93E0-93CA26D1A7C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="960" windowWidth="27240" windowHeight="16540" xr2:uid="{A1306BC4-A011-3F4B-B468-299FA49377F1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="263">
   <si>
     <t>id</t>
   </si>
@@ -808,6 +808,12 @@
   </si>
   <si>
     <t>#2123217</t>
+  </si>
+  <si>
+    <t>Audio Jack Socket</t>
+  </si>
+  <si>
+    <t>#5007690877382510</t>
   </si>
 </sst>
 </file>
@@ -967,14 +973,47 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1001,39 +1040,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1352,10 +1358,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1377,41 +1383,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="36"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
@@ -1441,35 +1447,35 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="41" t="s">
         <v>122</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="40" t="s">
         <v>149</v>
       </c>
       <c r="F4" s="14" t="s">
@@ -1497,13 +1503,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
         <v>249</v>
@@ -1527,17 +1533,17 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="30" t="s">
         <v>149</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1565,13 +1571,13 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="4">
         <v>9</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="45"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
         <v>224</v>
@@ -1595,17 +1601,17 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="41" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="40" t="s">
         <v>149</v>
       </c>
       <c r="F8" s="14" t="s">
@@ -1633,13 +1639,13 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="13">
         <v>1</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
         <v>248</v>
@@ -1825,14 +1831,14 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="39" t="s">
         <v>128</v>
       </c>
       <c r="E14" s="6"/>
@@ -1861,12 +1867,12 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="6"/>
       <c r="F15" s="5"/>
       <c r="G15" s="11" t="s">
@@ -1973,15 +1979,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="47" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="40" t="s">
         <v>149</v>
       </c>
       <c r="F18" s="14" t="s">
@@ -2009,13 +2015,13 @@
       </c>
     </row>
     <row r="19" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="13">
         <v>13</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="46"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="14"/>
       <c r="G19" s="19" t="s">
         <v>252</v>
@@ -2039,17 +2045,17 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="39" t="s">
         <v>92</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="38" t="s">
         <v>149</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -2077,13 +2083,13 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="4">
         <v>2</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="48"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="5"/>
       <c r="G21" s="11" t="s">
         <v>250</v>
@@ -2107,17 +2113,17 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="41" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="13"/>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="40" t="s">
         <v>149</v>
       </c>
       <c r="F22" s="14" t="s">
@@ -2145,13 +2151,13 @@
       </c>
     </row>
     <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="13">
         <v>2</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="46"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="14"/>
       <c r="G23" s="19" t="s">
         <v>251</v>
@@ -2175,15 +2181,15 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="39" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="51" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="42" t="s">
         <v>149</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -2211,13 +2217,13 @@
       </c>
     </row>
     <row r="25" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="4">
         <v>15</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="50"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="5"/>
       <c r="G25" s="11" t="s">
         <v>239</v>
@@ -2241,12 +2247,12 @@
       </c>
     </row>
     <row r="26" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="32" t="s">
         <v>95</v>
       </c>
       <c r="B26" s="13"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="32" t="s">
         <v>131</v>
       </c>
       <c r="E26" s="15"/>
@@ -2275,12 +2281,12 @@
       </c>
     </row>
     <row r="27" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="13">
         <v>1</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="15"/>
       <c r="F27" s="14"/>
       <c r="G27" s="19" t="s">
@@ -2346,17 +2352,17 @@
       </c>
     </row>
     <row r="29" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="41" t="s">
         <v>97</v>
       </c>
       <c r="B29" s="13"/>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="40" t="s">
         <v>160</v>
       </c>
       <c r="F29" s="14" t="s">
@@ -2384,13 +2390,13 @@
       </c>
     </row>
     <row r="30" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="13">
         <v>3</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="46"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="14"/>
       <c r="G30" s="19" t="s">
         <v>240</v>
@@ -2414,17 +2420,17 @@
       </c>
     </row>
     <row r="31" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="39" t="s">
         <v>99</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="38" t="s">
         <v>157</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -2452,13 +2458,13 @@
       </c>
     </row>
     <row r="32" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="4">
         <v>1</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="48"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="5"/>
       <c r="G32" s="11" t="s">
         <v>241</v>
@@ -2482,17 +2488,17 @@
       </c>
     </row>
     <row r="33" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="41" t="s">
         <v>100</v>
       </c>
       <c r="B33" s="13"/>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="40" t="s">
         <v>160</v>
       </c>
       <c r="F33" s="14" t="s">
@@ -2520,13 +2526,13 @@
       </c>
     </row>
     <row r="34" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="13">
         <v>2</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="46"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="14"/>
       <c r="G34" s="19" t="s">
         <v>242</v>
@@ -2550,17 +2556,17 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="39" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="38" t="s">
         <v>161</v>
       </c>
       <c r="F35" s="5" t="s">
@@ -2588,13 +2594,13 @@
       </c>
     </row>
     <row r="36" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="4">
         <v>1</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="48"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="5"/>
       <c r="G36" s="11" t="s">
         <v>243</v>
@@ -2618,17 +2624,17 @@
       </c>
     </row>
     <row r="37" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="41" t="s">
         <v>75</v>
       </c>
       <c r="B37" s="13"/>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="47" t="s">
+      <c r="D37" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="40" t="s">
         <v>167</v>
       </c>
       <c r="F37" s="14" t="s">
@@ -2656,13 +2662,13 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="13">
         <v>1</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="46"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="14"/>
       <c r="G38" s="19" t="s">
         <v>244</v>
@@ -2726,22 +2732,22 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
     </row>
     <row r="41" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
@@ -2824,17 +2830,17 @@
       </c>
     </row>
     <row r="43" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B43" s="13"/>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="33" t="s">
         <v>149</v>
       </c>
       <c r="F43" s="14" t="s">
@@ -2862,13 +2868,13 @@
       </c>
     </row>
     <row r="44" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="29"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="13">
         <v>5</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14" t="s">
         <v>224</v>
@@ -2892,17 +2898,17 @@
       </c>
     </row>
     <row r="45" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="39" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="38" t="s">
         <v>180</v>
       </c>
       <c r="F45" s="5" t="s">
@@ -2930,13 +2936,13 @@
       </c>
     </row>
     <row r="46" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="49"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="4">
         <v>1</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="48"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="38"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
         <v>246</v>
@@ -2960,14 +2966,14 @@
       </c>
     </row>
     <row r="47" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="13"/>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="32" t="s">
         <v>236</v>
       </c>
       <c r="E47" s="15"/>
@@ -2990,12 +2996,12 @@
       </c>
     </row>
     <row r="48" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="29"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="13">
         <v>1</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="15" t="s">
         <v>238</v>
       </c>
@@ -3024,17 +3030,17 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="E49" s="38" t="s">
         <v>189</v>
       </c>
       <c r="F49" s="5" t="s">
@@ -3062,13 +3068,13 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="49"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="4">
         <v>1</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="48"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="38"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
         <v>247</v>
@@ -3092,17 +3098,17 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B51" s="13"/>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="33" t="s">
         <v>234</v>
       </c>
       <c r="F51" s="14" t="s">
@@ -3128,13 +3134,13 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="29"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="13">
         <v>1</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="31"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14" t="s">
         <v>233</v>
@@ -3235,14 +3241,14 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="31" t="s">
         <v>259</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="6"/>
@@ -3275,12 +3281,12 @@
       </c>
     </row>
     <row r="56" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="30"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="4">
         <v>1</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
       <c r="E56" s="6"/>
       <c r="F56" s="5"/>
       <c r="G56" s="11" t="s">
@@ -3333,11 +3339,11 @@
       </c>
       <c r="L57" s="24"/>
       <c r="M57" s="24">
-        <f t="shared" ref="M57:M83" si="11">J57*K57+L57</f>
+        <f t="shared" ref="M57:M84" si="11">J57*K57+L57</f>
         <v>145</v>
       </c>
       <c r="N57" s="24">
-        <f t="shared" ref="N57:N83" si="12">M57/K57*B57</f>
+        <f t="shared" ref="N57:N84" si="12">M57/K57*B57</f>
         <v>1.45</v>
       </c>
     </row>
@@ -3461,19 +3467,19 @@
       </c>
     </row>
     <row r="61" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="32" t="s">
         <v>49</v>
       </c>
       <c r="B61" s="13">
         <v>1</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="E61" s="31"/>
+      <c r="E61" s="33"/>
       <c r="F61" s="14" t="s">
         <v>183</v>
       </c>
@@ -3499,11 +3505,11 @@
       </c>
     </row>
     <row r="62" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="13"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="31"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="33"/>
       <c r="F62" s="14" t="s">
         <v>232</v>
       </c>
@@ -3529,11 +3535,11 @@
       </c>
     </row>
     <row r="63" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="29"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="13"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="31"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="33"/>
       <c r="F63" s="14"/>
       <c r="G63" s="19" t="s">
         <v>260</v>
@@ -3634,14 +3640,14 @@
       </c>
     </row>
     <row r="66" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="31" t="s">
         <v>79</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="31" t="s">
         <v>214</v>
       </c>
       <c r="E66" s="6"/>
@@ -3670,12 +3676,12 @@
       </c>
     </row>
     <row r="67" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="30"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="4">
         <v>1</v>
       </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
       <c r="E67" s="6"/>
       <c r="F67" s="5"/>
       <c r="G67" s="11" t="s">
@@ -3700,17 +3706,15 @@
       </c>
     </row>
     <row r="68" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="13">
-        <v>2</v>
-      </c>
+      <c r="B68" s="13"/>
       <c r="C68" s="13"/>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E68" s="15"/>
+      <c r="E68" s="40"/>
       <c r="F68" s="14" t="s">
         <v>210</v>
       </c>
@@ -3735,61 +3739,65 @@
       </c>
       <c r="N68" s="24">
         <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="41"/>
+      <c r="B69" s="13">
+        <v>2</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="G69" s="15"/>
+      <c r="H69" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="I69" s="16">
+        <v>44188</v>
+      </c>
+      <c r="J69" s="24">
+        <f>M69/K69</f>
+        <v>87.8</v>
+      </c>
+      <c r="K69" s="27">
+        <v>10</v>
+      </c>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24">
+        <v>878</v>
+      </c>
+      <c r="N69" s="24">
+        <f t="shared" si="12"/>
+        <v>175.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="30" t="s">
+      <c r="B70" s="4"/>
+      <c r="C70" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D70" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="E69" s="45" t="s">
+      <c r="E70" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F70" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="25">
-        <v>8</v>
-      </c>
-      <c r="K69" s="28">
-        <v>1</v>
-      </c>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="N69" s="25">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="30"/>
-      <c r="B70" s="4">
-        <v>2</v>
-      </c>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="11" t="s">
-        <v>257</v>
-      </c>
+      <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="7"/>
       <c r="J70" s="25">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="K70" s="28">
         <v>1</v>
@@ -3797,67 +3805,67 @@
       <c r="L70" s="25"/>
       <c r="M70" s="25">
         <f t="shared" si="11"/>
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="N70" s="25">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="31"/>
+      <c r="B71" s="4">
+        <v>2</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="25">
+        <v>2.7</v>
+      </c>
+      <c r="K71" s="28">
+        <v>1</v>
+      </c>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25">
+        <f t="shared" si="11"/>
+        <v>2.7</v>
+      </c>
+      <c r="N71" s="25">
+        <f t="shared" si="12"/>
         <v>5.4</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="29" t="s">
+    <row r="72" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="29" t="s">
+      <c r="B72" s="13"/>
+      <c r="C72" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="53" t="s">
+      <c r="D72" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E72" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F72" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="G71" s="19" t="s">
+      <c r="G72" s="19" t="s">
         <v>187</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="24">
-        <v>2</v>
-      </c>
-      <c r="K71" s="27">
-        <v>1</v>
-      </c>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="N71" s="24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="29"/>
-      <c r="B72" s="13">
-        <v>5</v>
-      </c>
-      <c r="C72" s="29"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="19" t="s">
-        <v>253</v>
       </c>
       <c r="H72" s="15"/>
       <c r="I72" s="16"/>
       <c r="J72" s="24">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="K72" s="27">
         <v>1</v>
@@ -3865,67 +3873,67 @@
       <c r="L72" s="24"/>
       <c r="M72" s="24">
         <f t="shared" si="11"/>
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="N72" s="24">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="32"/>
+      <c r="B73" s="13">
+        <v>5</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="K73" s="27">
+        <v>1</v>
+      </c>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24">
+        <f t="shared" si="11"/>
+        <v>0.15</v>
+      </c>
+      <c r="N73" s="24">
+        <f t="shared" si="12"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="30" t="s">
+    <row r="74" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="30" t="s">
+      <c r="B74" s="4"/>
+      <c r="C74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="55" t="s">
+      <c r="D74" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="E73" s="54" t="s">
+      <c r="E74" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F74" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="G74" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="25">
-        <v>2</v>
-      </c>
-      <c r="K73" s="28">
-        <v>1</v>
-      </c>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="N73" s="25">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="30"/>
-      <c r="B74" s="4">
-        <v>1</v>
-      </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="7"/>
       <c r="J74" s="25">
-        <v>0.13</v>
+        <v>2</v>
       </c>
       <c r="K74" s="28">
         <v>1</v>
@@ -3933,67 +3941,67 @@
       <c r="L74" s="25"/>
       <c r="M74" s="25">
         <f t="shared" si="11"/>
-        <v>0.13</v>
+        <v>2</v>
       </c>
       <c r="N74" s="25">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="31"/>
+      <c r="B75" s="4">
+        <v>1</v>
+      </c>
+      <c r="C75" s="31"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="25">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="29" t="s">
+      <c r="K75" s="28">
+        <v>1</v>
+      </c>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25">
+        <f t="shared" si="11"/>
+        <v>0.13</v>
+      </c>
+      <c r="N75" s="25">
+        <f t="shared" si="12"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="29" t="s">
+      <c r="B76" s="13"/>
+      <c r="C76" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="53" t="s">
+      <c r="D76" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="E75" s="52" t="s">
+      <c r="E76" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="F76" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G75" s="19" t="s">
+      <c r="G76" s="19" t="s">
         <v>206</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="24">
-        <v>2</v>
-      </c>
-      <c r="K75" s="27">
-        <v>1</v>
-      </c>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="N75" s="24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="29"/>
-      <c r="B76" s="13">
-        <v>5</v>
-      </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="19" t="s">
-        <v>254</v>
       </c>
       <c r="H76" s="15"/>
       <c r="I76" s="16"/>
       <c r="J76" s="24">
-        <v>0.12</v>
+        <v>2</v>
       </c>
       <c r="K76" s="27">
         <v>1</v>
@@ -4001,67 +4009,67 @@
       <c r="L76" s="24"/>
       <c r="M76" s="24">
         <f t="shared" si="11"/>
-        <v>0.12</v>
+        <v>2</v>
       </c>
       <c r="N76" s="24">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="32"/>
+      <c r="B77" s="13">
+        <v>5</v>
+      </c>
+      <c r="C77" s="32"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="K77" s="27">
+        <v>1</v>
+      </c>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24">
+        <f t="shared" si="11"/>
+        <v>0.12</v>
+      </c>
+      <c r="N77" s="24">
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="30" t="s">
+    <row r="78" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="30" t="s">
+      <c r="B78" s="4"/>
+      <c r="C78" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D77" s="55" t="s">
+      <c r="D78" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="E77" s="54" t="s">
+      <c r="E78" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F78" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G78" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="25">
-        <v>2</v>
-      </c>
-      <c r="K77" s="28">
-        <v>1</v>
-      </c>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="N77" s="25">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="30"/>
-      <c r="B78" s="4">
-        <v>1</v>
-      </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="7"/>
       <c r="J78" s="25">
-        <v>0.17</v>
+        <v>2</v>
       </c>
       <c r="K78" s="28">
         <v>1</v>
@@ -4069,67 +4077,67 @@
       <c r="L78" s="25"/>
       <c r="M78" s="25">
         <f t="shared" si="11"/>
-        <v>0.17</v>
+        <v>2</v>
       </c>
       <c r="N78" s="25">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="31"/>
+      <c r="B79" s="4">
+        <v>1</v>
+      </c>
+      <c r="C79" s="31"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="25">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="29" t="s">
+      <c r="K79" s="28">
+        <v>1</v>
+      </c>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25">
+        <f t="shared" si="11"/>
+        <v>0.17</v>
+      </c>
+      <c r="N79" s="25">
+        <f t="shared" si="12"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="29" t="s">
+      <c r="B80" s="13"/>
+      <c r="C80" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="53" t="s">
+      <c r="D80" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E79" s="52" t="s">
+      <c r="E80" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F80" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="G79" s="19" t="s">
+      <c r="G80" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="24">
-        <v>2</v>
-      </c>
-      <c r="K79" s="27">
-        <v>1</v>
-      </c>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="N79" s="24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="29"/>
-      <c r="B80" s="13">
-        <v>1</v>
-      </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="19" t="s">
-        <v>251</v>
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="16"/>
       <c r="J80" s="24">
-        <v>0.17</v>
+        <v>2</v>
       </c>
       <c r="K80" s="27">
         <v>1</v>
@@ -4137,65 +4145,65 @@
       <c r="L80" s="24"/>
       <c r="M80" s="24">
         <f t="shared" si="11"/>
-        <v>0.17</v>
+        <v>2</v>
       </c>
       <c r="N80" s="24">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="32"/>
+      <c r="B81" s="13">
+        <v>1</v>
+      </c>
+      <c r="C81" s="32"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="24">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="30" t="s">
+      <c r="K81" s="27">
+        <v>1</v>
+      </c>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24">
+        <f t="shared" si="11"/>
+        <v>0.17</v>
+      </c>
+      <c r="N81" s="24">
+        <f t="shared" si="12"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="30" t="s">
+      <c r="B82" s="4"/>
+      <c r="C82" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D82" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="E81" s="45" t="s">
+      <c r="E82" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F82" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="25">
-        <v>30</v>
-      </c>
-      <c r="K81" s="28">
-        <v>1</v>
-      </c>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25">
-        <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-      <c r="N81" s="25">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="30"/>
-      <c r="B82" s="4">
-        <v>2</v>
-      </c>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="11" t="s">
-        <v>256</v>
-      </c>
+      <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="7"/>
       <c r="J82" s="25">
-        <v>16.600000000000001</v>
+        <v>30</v>
       </c>
       <c r="K82" s="28">
         <v>1</v>
@@ -4203,184 +4211,184 @@
       <c r="L82" s="25"/>
       <c r="M82" s="25">
         <f t="shared" si="11"/>
-        <v>16.600000000000001</v>
+        <v>30</v>
       </c>
       <c r="N82" s="25">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="31"/>
+      <c r="B83" s="4">
+        <v>2</v>
+      </c>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="25">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K83" s="28">
+        <v>1</v>
+      </c>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25">
+        <f t="shared" si="11"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N83" s="25">
+        <f t="shared" si="12"/>
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="29" t="s">
+    <row r="84" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="29" t="s">
+      <c r="B84" s="13"/>
+      <c r="C84" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D84" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="E83" s="31" t="s">
+      <c r="E84" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="F83" s="14" t="s">
+      <c r="F84" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="24">
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="24">
         <v>370</v>
       </c>
-      <c r="K83" s="27">
-        <v>1</v>
-      </c>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24">
+      <c r="K84" s="27">
+        <v>1</v>
+      </c>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24">
         <f t="shared" si="11"/>
         <v>370</v>
       </c>
-      <c r="N83" s="24">
+      <c r="N84" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="29"/>
-      <c r="B84" s="13">
-        <v>1</v>
-      </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="19" t="s">
+    <row r="85" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="32"/>
+      <c r="B85" s="13">
+        <v>1</v>
+      </c>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="H84" s="19" t="s">
+      <c r="H85" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="I84" s="16">
+      <c r="I85" s="16">
         <v>43346</v>
       </c>
-      <c r="J84" s="24">
+      <c r="J85" s="24">
         <f>126.2/10</f>
         <v>12.620000000000001</v>
       </c>
-      <c r="K84" s="27">
+      <c r="K85" s="27">
         <v>10</v>
       </c>
-      <c r="L84" s="24">
+      <c r="L85" s="24">
         <v>63.1</v>
       </c>
-      <c r="M84" s="24">
-        <f t="shared" ref="M84" si="13">J84*K84+L84</f>
+      <c r="M85" s="24">
+        <f t="shared" ref="M85" si="13">J85*K85+L85</f>
         <v>189.3</v>
       </c>
-      <c r="N84" s="24">
-        <f t="shared" ref="N84" si="14">M84/K84*B84</f>
+      <c r="N85" s="24">
+        <f t="shared" ref="N85" si="14">M85/K85*B85</f>
         <v>18.93</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+    <row r="86" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="4">
-        <v>1</v>
-      </c>
-      <c r="C85" s="4" t="s">
+      <c r="B86" s="4">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F86" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="11" t="s">
+      <c r="G86" s="6"/>
+      <c r="H86" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I86" s="7">
         <v>44070</v>
       </c>
-      <c r="J85" s="25">
+      <c r="J86" s="25">
         <v>8.8780000000000001</v>
       </c>
-      <c r="K85" s="28">
+      <c r="K86" s="28">
         <v>10</v>
       </c>
-      <c r="L85" s="25">
+      <c r="L86" s="25">
         <v>53.74</v>
       </c>
-      <c r="M85" s="25">
-        <f t="shared" ref="M85:M87" si="15">J85*K85+L85</f>
+      <c r="M86" s="25">
+        <f t="shared" ref="M86:M88" si="15">J86*K86+L86</f>
         <v>142.52000000000001</v>
       </c>
-      <c r="N85" s="25">
-        <f t="shared" ref="N85:N87" si="16">M85/K85*B85</f>
+      <c r="N86" s="25">
+        <f t="shared" ref="N86:N88" si="16">M86/K86*B86</f>
         <v>14.252000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="47" t="s">
+    <row r="87" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="47" t="s">
+      <c r="B87" s="13"/>
+      <c r="C87" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D86" s="47" t="s">
+      <c r="D87" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="E86" s="46" t="s">
+      <c r="E87" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="F86" s="14" t="s">
+      <c r="F87" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G86" s="19" t="s">
+      <c r="G87" s="19" t="s">
         <v>169</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="24">
-        <v>8</v>
-      </c>
-      <c r="K86" s="27">
-        <v>1</v>
-      </c>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="N86" s="24">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="47"/>
-      <c r="B87" s="13">
-        <v>3</v>
-      </c>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="19" t="s">
-        <v>244</v>
       </c>
       <c r="H87" s="15"/>
       <c r="I87" s="16"/>
       <c r="J87" s="24">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="K87" s="27">
         <v>1</v>
@@ -4388,171 +4396,168 @@
       <c r="L87" s="24"/>
       <c r="M87" s="24">
         <f t="shared" si="15"/>
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="N87" s="24">
         <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="41"/>
+      <c r="B88" s="13">
+        <v>3</v>
+      </c>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="24">
+        <v>2.7</v>
+      </c>
+      <c r="K88" s="27">
+        <v>1</v>
+      </c>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24">
+        <f t="shared" si="15"/>
+        <v>2.7</v>
+      </c>
+      <c r="N88" s="24">
+        <f t="shared" si="16"/>
         <v>8.1000000000000014</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="32" t="s">
+    <row r="89" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="33"/>
-    </row>
-    <row r="89" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="13" t="s">
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="45"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="44"/>
+    </row>
+    <row r="90" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B89" s="13">
-        <v>1</v>
-      </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="14" t="s">
+      <c r="B90" s="13">
+        <v>1</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G89" s="15"/>
-      <c r="H89" s="19" t="s">
+      <c r="G90" s="15"/>
+      <c r="H90" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="I89" s="16"/>
-      <c r="J89" s="24">
+      <c r="I90" s="16"/>
+      <c r="J90" s="24">
         <v>1050</v>
       </c>
-      <c r="K89" s="27">
-        <v>1</v>
-      </c>
-      <c r="L89" s="24">
+      <c r="K90" s="27">
+        <v>1</v>
+      </c>
+      <c r="L90" s="24">
         <v>280</v>
       </c>
-      <c r="M89" s="24">
-        <f t="shared" ref="M89" si="17">J89*K89+L89</f>
+      <c r="M90" s="24">
+        <f t="shared" ref="M90" si="17">J90*K90+L90</f>
         <v>1330</v>
       </c>
-      <c r="N89" s="24">
-        <f t="shared" ref="N89" si="18">M89/K89*B89</f>
+      <c r="N90" s="24">
+        <f t="shared" ref="N90" si="18">M90/K90*B90</f>
         <v>1330</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+    <row r="91" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B91" s="4">
         <v>13</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="5" t="s">
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="11" t="s">
+      <c r="G91" s="6"/>
+      <c r="H91" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I91" s="7">
         <v>43938</v>
       </c>
-      <c r="J90" s="25">
+      <c r="J91" s="25">
         <v>75</v>
       </c>
-      <c r="K90" s="28">
-        <v>1</v>
-      </c>
-      <c r="L90" s="25"/>
-      <c r="M90" s="25">
-        <f t="shared" ref="M90:M91" si="19">J90*K90+L90</f>
+      <c r="K91" s="28">
+        <v>1</v>
+      </c>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25">
+        <f t="shared" ref="M91:M92" si="19">J91*K91+L91</f>
         <v>75</v>
       </c>
-      <c r="N90" s="25">
-        <f t="shared" ref="N90:N91" si="20">M90/K90*B90</f>
+      <c r="N91" s="25">
+        <f t="shared" ref="N91:N92" si="20">M91/K91*B91</f>
         <v>975</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B91" s="13">
-        <v>13</v>
-      </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G91" s="15"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="24">
-        <v>55</v>
-      </c>
-      <c r="K91" s="27">
-        <v>1</v>
-      </c>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24">
-        <f t="shared" si="19"/>
-        <v>55</v>
-      </c>
-      <c r="N91" s="24">
-        <f t="shared" si="20"/>
-        <v>715</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="B92" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="15"/>
-      <c r="F92" s="14"/>
+      <c r="F92" s="14" t="s">
+        <v>218</v>
+      </c>
       <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
+      <c r="H92" s="19"/>
       <c r="I92" s="16"/>
       <c r="J92" s="24">
-        <f>1555/5</f>
-        <v>311</v>
+        <v>55</v>
       </c>
       <c r="K92" s="27">
-        <v>5</v>
-      </c>
-      <c r="L92" s="24">
-        <v>1500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L92" s="24"/>
       <c r="M92" s="24">
-        <f t="shared" ref="M92:M93" si="21">J92*K92+L92</f>
-        <v>3055</v>
+        <f t="shared" si="19"/>
+        <v>55</v>
       </c>
       <c r="N92" s="24">
-        <f t="shared" ref="N92:N93" si="22">M92/K92*B92</f>
-        <v>611</v>
+        <f t="shared" si="20"/>
+        <v>715</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="B93" s="13">
         <v>1</v>
@@ -4560,30 +4565,32 @@
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="15"/>
-      <c r="F93" s="13"/>
+      <c r="F93" s="14"/>
       <c r="G93" s="15"/>
       <c r="H93" s="15"/>
       <c r="I93" s="16"/>
       <c r="J93" s="24">
-        <f>3288/5</f>
-        <v>657.6</v>
+        <f>1555/5</f>
+        <v>311</v>
       </c>
       <c r="K93" s="27">
         <v>5</v>
       </c>
-      <c r="L93" s="24"/>
+      <c r="L93" s="24">
+        <v>1500</v>
+      </c>
       <c r="M93" s="24">
-        <f t="shared" si="21"/>
-        <v>3288</v>
+        <f t="shared" ref="M93:M94" si="21">J93*K93+L93</f>
+        <v>3055</v>
       </c>
       <c r="N93" s="24">
-        <f t="shared" si="22"/>
-        <v>657.6</v>
+        <f t="shared" ref="N93:N94" si="22">M93/K93*B93</f>
+        <v>611</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="B94" s="13">
         <v>1</v>
@@ -4591,80 +4598,164 @@
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="15"/>
-      <c r="F94" s="14" t="s">
-        <v>220</v>
-      </c>
+      <c r="F94" s="13"/>
       <c r="G94" s="15"/>
-      <c r="H94" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="I94" s="16">
-        <v>43312</v>
-      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="16"/>
       <c r="J94" s="24">
-        <v>144</v>
+        <f>3288/5</f>
+        <v>657.6</v>
       </c>
       <c r="K94" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L94" s="24"/>
       <c r="M94" s="24">
-        <f t="shared" ref="M94" si="23">J94*K94+L94</f>
+        <f t="shared" si="21"/>
+        <v>3288</v>
+      </c>
+      <c r="N94" s="24">
+        <f t="shared" si="22"/>
+        <v>657.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B95" s="13">
+        <v>1</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="G95" s="15"/>
+      <c r="H95" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="I95" s="16">
+        <v>43312</v>
+      </c>
+      <c r="J95" s="24">
         <v>144</v>
       </c>
-      <c r="N94" s="24">
-        <f t="shared" ref="N94" si="24">M94/K94*B94</f>
+      <c r="K95" s="27">
+        <v>1</v>
+      </c>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24">
+        <f t="shared" ref="M95" si="23">J95*K95+L95</f>
         <v>144</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="26"/>
-      <c r="L95" s="26"/>
-      <c r="M95" s="26"/>
-      <c r="N95" s="26">
-        <f>SUM(N3:N94)</f>
-        <v>9408.5809285714295</v>
+      <c r="N95" s="24">
+        <f t="shared" ref="N95" si="24">M95/K95*B95</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26">
+        <f>SUM(N3:N95)</f>
+        <v>9504.1809285714298</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="128">
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A77:A78"/>
+  <mergeCells count="131">
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A89:N89"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E51:E52"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="C45:C46"/>
@@ -4684,100 +4775,50 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A71:A72"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A88:N88"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="E61:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F54" r:id="rId1" xr:uid="{93A0D3F3-083E-5C4E-BE8B-04CE275DC0D7}"/>
-    <hyperlink ref="F85" r:id="rId2" xr:uid="{4B029C3D-4555-1549-85A5-901E9B65690C}"/>
-    <hyperlink ref="F89" r:id="rId3" xr:uid="{6A9B646B-AB87-2046-B68B-D36F3AF8C8F7}"/>
-    <hyperlink ref="F90" r:id="rId4" xr:uid="{CE4D3387-E51E-8943-A2C5-EA3422EB32FB}"/>
-    <hyperlink ref="H90" r:id="rId5" tooltip="3003743130452510" display="https://trade.aliexpress.ru/order_detail.htm?orderId=3003743130452510" xr:uid="{B6BA5257-47C7-6346-BA55-D3502B69A405}"/>
-    <hyperlink ref="H89" r:id="rId6" tooltip="5003448406902510" display="https://trade.aliexpress.ru/order_detail.htm?orderId=5003448406902510" xr:uid="{6E5F657D-F6C5-324C-830A-A960957BB4F7}"/>
-    <hyperlink ref="F86" r:id="rId7" xr:uid="{1E2A0308-D9CF-454A-8802-6E7AD0B033FE}"/>
-    <hyperlink ref="F83" r:id="rId8" xr:uid="{129CC1F6-91DD-AA4F-97FB-2A80494E59F1}"/>
-    <hyperlink ref="F81" r:id="rId9" xr:uid="{8DC9858F-07F8-8447-B669-4805291E399A}"/>
-    <hyperlink ref="F69" r:id="rId10" display=" PMV65XP,215" xr:uid="{A4723F20-ADBA-C14C-A196-9CAC485BA322}"/>
+    <hyperlink ref="F86" r:id="rId2" xr:uid="{4B029C3D-4555-1549-85A5-901E9B65690C}"/>
+    <hyperlink ref="F90" r:id="rId3" xr:uid="{6A9B646B-AB87-2046-B68B-D36F3AF8C8F7}"/>
+    <hyperlink ref="F91" r:id="rId4" xr:uid="{CE4D3387-E51E-8943-A2C5-EA3422EB32FB}"/>
+    <hyperlink ref="H91" r:id="rId5" tooltip="3003743130452510" display="https://trade.aliexpress.ru/order_detail.htm?orderId=3003743130452510" xr:uid="{B6BA5257-47C7-6346-BA55-D3502B69A405}"/>
+    <hyperlink ref="H90" r:id="rId6" tooltip="5003448406902510" display="https://trade.aliexpress.ru/order_detail.htm?orderId=5003448406902510" xr:uid="{6E5F657D-F6C5-324C-830A-A960957BB4F7}"/>
+    <hyperlink ref="F87" r:id="rId7" xr:uid="{1E2A0308-D9CF-454A-8802-6E7AD0B033FE}"/>
+    <hyperlink ref="F84" r:id="rId8" xr:uid="{129CC1F6-91DD-AA4F-97FB-2A80494E59F1}"/>
+    <hyperlink ref="F82" r:id="rId9" xr:uid="{8DC9858F-07F8-8447-B669-4805291E399A}"/>
+    <hyperlink ref="F70" r:id="rId10" display=" PMV65XP,215" xr:uid="{A4723F20-ADBA-C14C-A196-9CAC485BA322}"/>
     <hyperlink ref="F65" r:id="rId11" xr:uid="{7B8F5E1A-DF8E-4845-A951-B5164657E4FB}"/>
     <hyperlink ref="H65" r:id="rId12" xr:uid="{971A54CD-31F2-F049-9EC0-8A64DF8FC645}"/>
     <hyperlink ref="F26" r:id="rId13" xr:uid="{B00CAE11-92D5-C84E-A651-F6CD9BA3F638}"/>
@@ -4816,18 +4857,18 @@
     <hyperlink ref="G31" r:id="rId46" xr:uid="{18C7D7B9-19F0-F64C-86E7-6B7E2678FE6C}"/>
     <hyperlink ref="F37" r:id="rId47" xr:uid="{36E77C32-4D67-2649-9C75-0B56DE4C1413}"/>
     <hyperlink ref="G37" r:id="rId48" xr:uid="{90C24E65-ED9A-5341-858B-A34AA1204E24}"/>
-    <hyperlink ref="G79" r:id="rId49" xr:uid="{68FE7240-4448-FF4F-9527-37F0F966066E}"/>
-    <hyperlink ref="F79" r:id="rId50" xr:uid="{21635268-459A-7141-86F8-D9937BBC6CC7}"/>
-    <hyperlink ref="G73" r:id="rId51" xr:uid="{D54376AD-EE4A-DE4E-AD3B-F6A11968D5DE}"/>
-    <hyperlink ref="F73" r:id="rId52" xr:uid="{A4B45F63-5836-D84C-9C34-589D040620DA}"/>
+    <hyperlink ref="G80" r:id="rId49" xr:uid="{68FE7240-4448-FF4F-9527-37F0F966066E}"/>
+    <hyperlink ref="F80" r:id="rId50" xr:uid="{21635268-459A-7141-86F8-D9937BBC6CC7}"/>
+    <hyperlink ref="G74" r:id="rId51" xr:uid="{D54376AD-EE4A-DE4E-AD3B-F6A11968D5DE}"/>
+    <hyperlink ref="F74" r:id="rId52" xr:uid="{A4B45F63-5836-D84C-9C34-589D040620DA}"/>
     <hyperlink ref="G39" r:id="rId53" xr:uid="{F54A76C4-D2FD-9A4B-B98A-0A67C80F5934}"/>
-    <hyperlink ref="G86" r:id="rId54" xr:uid="{A3AC08C8-7679-224B-95B1-E70EB8E4F630}"/>
+    <hyperlink ref="G87" r:id="rId54" xr:uid="{A3AC08C8-7679-224B-95B1-E70EB8E4F630}"/>
     <hyperlink ref="F43" r:id="rId55" xr:uid="{3B731BB9-BC4D-4745-B29B-6FC67C755A5B}"/>
     <hyperlink ref="G43" r:id="rId56" xr:uid="{D64B8A92-47C9-FA48-B88F-BD73923CF1FF}"/>
     <hyperlink ref="F61" r:id="rId57" xr:uid="{724A803B-3B6D-F343-A319-95777DC4AE20}"/>
     <hyperlink ref="G61" r:id="rId58" xr:uid="{E44C9128-9B1F-EE43-BE02-A860FBBF136D}"/>
-    <hyperlink ref="F71" r:id="rId59" xr:uid="{98FF456E-76EB-8A4B-BC4F-0BBC9AD58065}"/>
-    <hyperlink ref="G71" r:id="rId60" xr:uid="{EFAA7262-ED15-A244-BEEA-49841B6D9A5C}"/>
+    <hyperlink ref="F72" r:id="rId59" xr:uid="{98FF456E-76EB-8A4B-BC4F-0BBC9AD58065}"/>
+    <hyperlink ref="G72" r:id="rId60" xr:uid="{EFAA7262-ED15-A244-BEEA-49841B6D9A5C}"/>
     <hyperlink ref="G49" r:id="rId61" xr:uid="{F9C34AFB-5916-C143-8BC0-6D591C45CB67}"/>
     <hyperlink ref="F11" r:id="rId62" xr:uid="{8ACA5C64-2F43-B349-B93C-6548969E050A}"/>
     <hyperlink ref="H11" r:id="rId63" xr:uid="{3D06073C-AEF8-FA44-A4FF-AB0187547295}"/>
@@ -4850,10 +4891,10 @@
     <hyperlink ref="F42" r:id="rId80" xr:uid="{99E8B4C7-14A9-F046-A596-99E2400EEC16}"/>
     <hyperlink ref="G42" r:id="rId81" xr:uid="{3BB191DE-5912-7F44-B90B-4FDD89D86F79}"/>
     <hyperlink ref="G45" r:id="rId82" xr:uid="{64060412-238C-DD49-B04B-A20225F417F8}"/>
-    <hyperlink ref="G75" r:id="rId83" xr:uid="{FDDA3319-6A67-104C-963A-88C5F7975F5B}"/>
-    <hyperlink ref="F75" r:id="rId84" xr:uid="{9E7B6961-6323-C445-86F9-91F6EB588C36}"/>
-    <hyperlink ref="G77" r:id="rId85" xr:uid="{694874E0-7448-7C4F-83AD-50B01C04CF4E}"/>
-    <hyperlink ref="F77" r:id="rId86" xr:uid="{1F5A051F-A090-AB4E-BC58-CC3B1D3EBFB6}"/>
+    <hyperlink ref="G76" r:id="rId83" xr:uid="{FDDA3319-6A67-104C-963A-88C5F7975F5B}"/>
+    <hyperlink ref="F76" r:id="rId84" xr:uid="{9E7B6961-6323-C445-86F9-91F6EB588C36}"/>
+    <hyperlink ref="G78" r:id="rId85" xr:uid="{694874E0-7448-7C4F-83AD-50B01C04CF4E}"/>
+    <hyperlink ref="F78" r:id="rId86" xr:uid="{1F5A051F-A090-AB4E-BC58-CC3B1D3EBFB6}"/>
     <hyperlink ref="F68" r:id="rId87" xr:uid="{5D34A2F6-B83A-AF43-BB71-28B7A415ADA9}"/>
     <hyperlink ref="H68" r:id="rId88" xr:uid="{01C8E8C3-0199-8D46-BEF9-FF8135E544C0}"/>
     <hyperlink ref="G66" r:id="rId89" xr:uid="{2460F0EB-0C1B-1846-9D76-B45483838ACE}"/>
@@ -4861,17 +4902,17 @@
     <hyperlink ref="F10" r:id="rId91" xr:uid="{103FFDD9-0F4D-6A43-912D-173B96FB70B4}"/>
     <hyperlink ref="F57" r:id="rId92" xr:uid="{87F6FF14-CEF7-7C4B-BFFC-B80EB3C5A873}"/>
     <hyperlink ref="F60" r:id="rId93" xr:uid="{26557500-3B22-A546-9BDD-C235CB68C13D}"/>
-    <hyperlink ref="F91" r:id="rId94" xr:uid="{46BBCFC2-1504-A849-AE57-7FC61749550C}"/>
-    <hyperlink ref="F94" r:id="rId95" xr:uid="{7C535722-9EDC-304A-9344-9A560F3847C5}"/>
-    <hyperlink ref="H94" r:id="rId96" xr:uid="{AFC3C12F-A15C-6C46-8A31-BF841817910A}"/>
+    <hyperlink ref="F92" r:id="rId94" xr:uid="{46BBCFC2-1504-A849-AE57-7FC61749550C}"/>
+    <hyperlink ref="F95" r:id="rId95" xr:uid="{7C535722-9EDC-304A-9344-9A560F3847C5}"/>
+    <hyperlink ref="H95" r:id="rId96" xr:uid="{AFC3C12F-A15C-6C46-8A31-BF841817910A}"/>
     <hyperlink ref="G27" r:id="rId97" xr:uid="{B9C12FAF-3C41-B94C-B9ED-1BB79E1FBBF4}"/>
     <hyperlink ref="G7" r:id="rId98" xr:uid="{2DA01050-80C5-8E4B-B77D-0A0458F3A4B7}"/>
     <hyperlink ref="G44" r:id="rId99" xr:uid="{76372541-0B45-FA46-B62A-C064C56627F5}"/>
     <hyperlink ref="H55" r:id="rId100" xr:uid="{88EE429C-6247-FF44-8DA8-0BAFF12FB0EB}"/>
     <hyperlink ref="H54" r:id="rId101" xr:uid="{1BD69DC2-00BB-4647-B25A-707DA808F7EE}"/>
-    <hyperlink ref="H85" r:id="rId102" xr:uid="{20685563-16A4-0C49-A561-665ACEE13E3E}"/>
-    <hyperlink ref="H84" r:id="rId103" xr:uid="{79696225-7AC8-7240-A6B6-A24C93B7E4F9}"/>
-    <hyperlink ref="G84" r:id="rId104" xr:uid="{4A324395-1BE2-3C4F-AC63-D37BB7F18F6C}"/>
+    <hyperlink ref="H86" r:id="rId102" xr:uid="{20685563-16A4-0C49-A561-665ACEE13E3E}"/>
+    <hyperlink ref="H85" r:id="rId103" xr:uid="{79696225-7AC8-7240-A6B6-A24C93B7E4F9}"/>
+    <hyperlink ref="G85" r:id="rId104" xr:uid="{4A324395-1BE2-3C4F-AC63-D37BB7F18F6C}"/>
     <hyperlink ref="G67" r:id="rId105" xr:uid="{A81B9F5B-8AA8-2146-8D04-9E22D98196A1}"/>
     <hyperlink ref="G62" r:id="rId106" xr:uid="{86DD9820-2AD4-1145-8737-9664A19F465F}"/>
     <hyperlink ref="F62" r:id="rId107" xr:uid="{B9EF4697-D045-5F4A-820E-246C0E1D0278}"/>
@@ -4884,7 +4925,7 @@
     <hyperlink ref="G34" r:id="rId114" xr:uid="{910BB8AE-FEDC-F64C-99FB-972A832090C5}"/>
     <hyperlink ref="G36" r:id="rId115" xr:uid="{65A3A33A-4B0B-2A49-BAB4-0875E4E2E378}"/>
     <hyperlink ref="G38" r:id="rId116" xr:uid="{A74FBA59-D20E-2A4B-855C-C35AD7149EE2}"/>
-    <hyperlink ref="G87" r:id="rId117" xr:uid="{891E3549-5127-2346-AD3A-0B77663CFF7D}"/>
+    <hyperlink ref="G88" r:id="rId117" xr:uid="{891E3549-5127-2346-AD3A-0B77663CFF7D}"/>
     <hyperlink ref="G15" r:id="rId118" xr:uid="{4F0B97B1-7901-A741-B820-8400653A2EDF}"/>
     <hyperlink ref="G46" r:id="rId119" xr:uid="{3B5C0CE2-57E9-5446-B703-5EDB49B475C0}"/>
     <hyperlink ref="G50" r:id="rId120" xr:uid="{A6148083-46D7-204F-A078-8A64328216D5}"/>
@@ -4893,20 +4934,22 @@
     <hyperlink ref="G21" r:id="rId123" xr:uid="{8E138315-D4FD-384A-95F6-82F3323F13DD}"/>
     <hyperlink ref="G23" r:id="rId124" xr:uid="{378BDA5F-A160-FA42-9524-C8A1DE7DAC8E}"/>
     <hyperlink ref="G19" r:id="rId125" xr:uid="{C68360A3-B3EA-2242-8029-8F42E4C74368}"/>
-    <hyperlink ref="G72" r:id="rId126" xr:uid="{7D59B962-906F-E64F-A8F6-D3AC4799ACC4}"/>
-    <hyperlink ref="G74" r:id="rId127" xr:uid="{AEA87316-1AA3-0C48-96CE-60385F8B492D}"/>
-    <hyperlink ref="G76" r:id="rId128" xr:uid="{B26DA07F-4780-D146-947A-B15EA4989510}"/>
-    <hyperlink ref="G78" r:id="rId129" xr:uid="{E1428CC3-9D56-ED45-8DBD-FCB05F5B13BA}"/>
-    <hyperlink ref="G80" r:id="rId130" xr:uid="{F5922E65-36A1-D641-824E-601FE6BF4256}"/>
-    <hyperlink ref="G82" r:id="rId131" xr:uid="{3EB60B73-077A-5243-AA3C-AD2498A79283}"/>
-    <hyperlink ref="G70" r:id="rId132" xr:uid="{A463CE27-05A7-4744-B627-7110B77F2E60}"/>
+    <hyperlink ref="G73" r:id="rId126" xr:uid="{7D59B962-906F-E64F-A8F6-D3AC4799ACC4}"/>
+    <hyperlink ref="G75" r:id="rId127" xr:uid="{AEA87316-1AA3-0C48-96CE-60385F8B492D}"/>
+    <hyperlink ref="G77" r:id="rId128" xr:uid="{B26DA07F-4780-D146-947A-B15EA4989510}"/>
+    <hyperlink ref="G79" r:id="rId129" xr:uid="{E1428CC3-9D56-ED45-8DBD-FCB05F5B13BA}"/>
+    <hyperlink ref="G81" r:id="rId130" xr:uid="{F5922E65-36A1-D641-824E-601FE6BF4256}"/>
+    <hyperlink ref="G83" r:id="rId131" xr:uid="{3EB60B73-077A-5243-AA3C-AD2498A79283}"/>
+    <hyperlink ref="G71" r:id="rId132" xr:uid="{A463CE27-05A7-4744-B627-7110B77F2E60}"/>
     <hyperlink ref="G56" r:id="rId133" xr:uid="{71CF4E6A-E2D3-8041-8F18-FCFB749FD03A}"/>
     <hyperlink ref="G63" r:id="rId134" xr:uid="{F95DB303-4FA1-0B44-AA17-7FB01ECE58D5}"/>
+    <hyperlink ref="F69" r:id="rId135" xr:uid="{74F7AC0D-EF2F-8748-A033-8E86F31DE160}"/>
+    <hyperlink ref="H69" r:id="rId136" xr:uid="{3A1F6E67-4C64-584D-A3EC-5571B4B5D259}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E43 E51 E24 E6:E8 E79 E18 E20 E22 E4 E71 E73 E75 E77" numberStoredAsText="1"/>
+    <ignoredError sqref="E43 E51 E24 E6:E8 E80 E18 E20 E22 E4 E72 E74 E76 E78" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>